--- a/data/trans_bre/P25A_1_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_1_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,7 +657,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,25 +667,45 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -673,7 +725,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,0</t>
+          <t>-3,59; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>20,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,94%</t>
         </is>
       </c>
     </row>
@@ -768,12 +860,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +875,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 98,69</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 2,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,13</t>
+          <t>0,22; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,12 +1020,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -902,6 +1034,26 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-74,43%</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,55%</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-74,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>-4,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-8,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-71,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-53,73%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,93%</t>
         </is>
       </c>
     </row>
@@ -968,32 +1140,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,29</t>
+          <t>-2,94; 0,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,4</t>
+          <t>-1,8; 1,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,2</t>
+          <t>-1,42; 1,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 61,42</t>
+          <t>-3,72; 0,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 2,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1175,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,09; 458,38</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-89,39; 179,11</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-54,65%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>127,64%</t>
+          <t>89,7%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-48,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-51,45%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1280,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,43</t>
+          <t>-1,28; 2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,48</t>
+          <t>-1,09; 4,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,56</t>
+          <t>-1,68; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 31,5</t>
+          <t>-2,09; 4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 3,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; 1,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1315,27 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,01; —</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-73,52; 678,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-73,67; 288,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-87,84; 96,06</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,54%</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,85%</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>-13,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>-19,75%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-1,8%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-91,69%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>102,61%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 5,11</t>
+          <t>-9,32; 3,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,64</t>
+          <t>-3,2; 1,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,31</t>
+          <t>-3,91; 3,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 19,66</t>
+          <t>-3,91; 4,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,24; 323,41</t>
+          <t>-17,44; -5,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,53; 323,48</t>
+          <t>-1,99; 7,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,13; 246,81</t>
+          <t>-81,47; 257,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,34; 333,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-73,66; 240,04</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -60,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-57,31; 1112,77</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-61,82%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,15</t>
+          <t>-1,44; 0,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,95</t>
+          <t>-0,41; 0,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,84</t>
+          <t>-0,54; 0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 16,92</t>
+          <t>-0,63; 1,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 191,71</t>
+          <t>-3,01; -0,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 193,1</t>
+          <t>-1,09; 1,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 191,28</t>
+          <t>-69,7; 156,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 358,34</t>
+          <t>-37,33; 185,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-52,24; 202,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-51,75; 259,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-79,78; -19,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-47,34; 115,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
